--- a/documents/requirement/タイムライン.xlsx
+++ b/documents/requirement/タイムライン.xlsx
@@ -229,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +252,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,11 +294,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -294,10 +310,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -619,45 +638,45 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
@@ -668,67 +687,67 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
@@ -739,276 +758,287 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B25:D25"/>
@@ -1021,23 +1051,12 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/requirement/タイムライン.xlsx
+++ b/documents/requirement/タイムライン.xlsx
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -758,7 +758,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -769,7 +769,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
@@ -780,7 +780,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
@@ -791,7 +791,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -802,7 +802,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
@@ -813,7 +813,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
@@ -824,7 +824,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
@@ -835,7 +835,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
